--- a/prep_and_checklists/Dr Offodile Award North Terrace/Dr Offodile Award North Terrace_2025-04-29_0.xlsx
+++ b/prep_and_checklists/Dr Offodile Award North Terrace/Dr Offodile Award North Terrace_2025-04-29_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Dr Offodile Award North Terrace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E874DB5-EFBF-684E-8E8D-CD744F0D3F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32336A29-5854-FC43-AAFB-DBD5672C9A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -657,10 +657,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,7 +951,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="78" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1162,5 +1165,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>